--- a/teaching/traditional_assets/database/data/tunisia/tunisia_real_estate_operations_services.xlsx
+++ b/teaching/traditional_assets/database/data/tunisia/tunisia_real_estate_operations_services.xlsx
@@ -590,41 +590,44 @@
           <t>Real Estate (Operations &amp; Services)</t>
         </is>
       </c>
+      <c r="D2">
+        <v>-0.251</v>
+      </c>
       <c r="G2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>-3.24</v>
+        <v>-2.03</v>
       </c>
       <c r="L2">
-        <v>3.207920792079208</v>
+        <v>-4.194214876033057</v>
       </c>
       <c r="M2">
-        <v>0.01</v>
+        <v>0.012</v>
       </c>
       <c r="N2">
-        <v>0.002309468822170901</v>
+        <v>0.003468208092485549</v>
       </c>
       <c r="O2">
-        <v>-0.00308641975308642</v>
+        <v>-0.005911330049261084</v>
       </c>
       <c r="P2">
-        <v>0.01</v>
+        <v>0.012</v>
       </c>
       <c r="Q2">
-        <v>0.002309468822170901</v>
+        <v>0.003468208092485549</v>
       </c>
       <c r="R2">
-        <v>-0.00308641975308642</v>
+        <v>-0.005911330049261084</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -633,55 +636,55 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>3.02</v>
+        <v>4.32</v>
       </c>
       <c r="V2">
-        <v>0.6974595842956121</v>
+        <v>1.248554913294798</v>
       </c>
       <c r="W2">
-        <v>-0.2012422360248447</v>
+        <v>-0.179646017699115</v>
       </c>
       <c r="X2">
-        <v>1.010612832135893</v>
+        <v>1.129256214249508</v>
       </c>
       <c r="Y2">
-        <v>-1.211855068160738</v>
+        <v>-1.308902231948623</v>
       </c>
       <c r="Z2">
-        <v>-0.007318840579710145</v>
+        <v>0.004337694927406345</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.101131111955945</v>
+        <v>0.09795707071344843</v>
       </c>
       <c r="AC2">
-        <v>-0.101131111955945</v>
+        <v>-0.09795707071344843</v>
       </c>
       <c r="AD2">
-        <v>103.3</v>
+        <v>91.5</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>103.3</v>
+        <v>91.5</v>
       </c>
       <c r="AG2">
-        <v>100.28</v>
+        <v>87.18000000000001</v>
       </c>
       <c r="AH2">
-        <v>0.9597695809718481</v>
+        <v>0.9635636057287279</v>
       </c>
       <c r="AI2">
-        <v>0.9013961605584643</v>
+        <v>0.9072880515617254</v>
       </c>
       <c r="AJ2">
-        <v>0.9586081636554823</v>
+        <v>0.9618270079435128</v>
       </c>
       <c r="AK2">
-        <v>0.8987273704965048</v>
+        <v>0.9031389205428365</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -698,7 +701,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Modern Leasing SA (BVMT:ML)</t>
+          <t>BH Leasing Société Anonyme (BVMT:BHL)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -706,41 +709,44 @@
           <t>Real Estate (Operations &amp; Services)</t>
         </is>
       </c>
+      <c r="D3">
+        <v>-0.251</v>
+      </c>
       <c r="G3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>-3.24</v>
+        <v>-2.03</v>
       </c>
       <c r="L3">
-        <v>3.207920792079208</v>
+        <v>-4.194214876033057</v>
       </c>
       <c r="M3">
-        <v>0.01</v>
+        <v>0.012</v>
       </c>
       <c r="N3">
-        <v>0.002309468822170901</v>
+        <v>0.003468208092485549</v>
       </c>
       <c r="O3">
-        <v>-0.00308641975308642</v>
+        <v>-0.005911330049261084</v>
       </c>
       <c r="P3">
-        <v>0.01</v>
+        <v>0.012</v>
       </c>
       <c r="Q3">
-        <v>0.002309468822170901</v>
+        <v>0.003468208092485549</v>
       </c>
       <c r="R3">
-        <v>-0.00308641975308642</v>
+        <v>-0.005911330049261084</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -749,55 +755,55 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>3.02</v>
+        <v>4.32</v>
       </c>
       <c r="V3">
-        <v>0.6974595842956121</v>
+        <v>1.248554913294798</v>
       </c>
       <c r="W3">
-        <v>-0.2012422360248447</v>
+        <v>-0.179646017699115</v>
       </c>
       <c r="X3">
-        <v>1.010612832135893</v>
+        <v>1.129256214249508</v>
       </c>
       <c r="Y3">
-        <v>-1.211855068160738</v>
+        <v>-1.308902231948623</v>
       </c>
       <c r="Z3">
-        <v>-0.007318840579710145</v>
+        <v>0.004337694927406345</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.101131111955945</v>
+        <v>0.09795707071344843</v>
       </c>
       <c r="AC3">
-        <v>-0.101131111955945</v>
+        <v>-0.09795707071344843</v>
       </c>
       <c r="AD3">
-        <v>103.3</v>
+        <v>91.5</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>103.3</v>
+        <v>91.5</v>
       </c>
       <c r="AG3">
-        <v>100.28</v>
+        <v>87.18000000000001</v>
       </c>
       <c r="AH3">
-        <v>0.9597695809718481</v>
+        <v>0.9635636057287279</v>
       </c>
       <c r="AI3">
-        <v>0.9013961605584643</v>
+        <v>0.9072880515617254</v>
       </c>
       <c r="AJ3">
-        <v>0.9586081636554823</v>
+        <v>0.9618270079435128</v>
       </c>
       <c r="AK3">
-        <v>0.8987273704965048</v>
+        <v>0.9031389205428365</v>
       </c>
       <c r="AL3">
         <v>0</v>
